--- a/output/determinants/set1/da/lin_reg_nr/determinants.xlsx
+++ b/output/determinants/set1/da/lin_reg_nr/determinants.xlsx
@@ -1,40 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andriu\Main\DOCUMENTOS\3. MACHINE LEARNING\PYTHON_PROYECTS\LPC_Finance\output\determinants\set1\da\lin_reg_nr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18643C07-AFF4-44D0-A7F7-23D442B213B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="19035" yWindow="60" windowWidth="9540" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>coef</t>
+  </si>
+  <si>
+    <t>std err</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>P&gt;|t|</t>
+  </si>
+  <si>
+    <t>[0.025</t>
+  </si>
+  <si>
+    <t>0.975]</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>WINDOW_SIZE</t>
+  </si>
+  <si>
+    <t>P_LAGS</t>
+  </si>
+  <si>
+    <t>VOLUME_COEF_VAR</t>
+  </si>
+  <si>
+    <t>STREAK_PROBA</t>
+  </si>
+  <si>
+    <t>MEAN_PRICE</t>
+  </si>
+  <si>
+    <t>PRICE_STD</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,93 +126,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,228 +465,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>VARIABLE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>coef</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>std err</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P&gt;|t|</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>[0.025</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0.975]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3142</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.897</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.342</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>WINDOW_SIZE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9.17e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.08e-06</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.978</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.12e-06</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.52e-05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>P_LAGS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6.245e-05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.24e-05</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.192</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-4.05e-05</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>21.896999999999998</v>
+      </c>
+      <c r="E2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>VOLUME_COEF_VAR</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="F2" s="5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>9.1700000000000003E-6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.0800000000000002E-6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.9780000000000002</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.1200000000000002E-6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.52E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>6.245E-5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.24E-5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-4.0500000000000002E-5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D5" s="5">
         <v>3.14</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>STREAK_PROBA</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.3814</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.319</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="E5" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>13.319000000000001</v>
+      </c>
+      <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6" s="5">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G6" s="5">
         <v>0.438</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>MEAN_PRICE</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3.342e-06</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.21e-05</v>
-      </c>
-      <c r="D7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3.3419999999999999E-6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.2099999999999998E-5</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.152</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="3">
         <v>0.88</v>
       </c>
-      <c r="F7" t="n">
-        <v>-4e-05</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.67e-05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>PRICE_STD</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.025e-05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.329999999999999e-05</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.162</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="F7" s="3">
+        <v>-4.0000000000000003E-5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.6699999999999997E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-1.025E-5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.3299999999999994E-5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.871</v>
       </c>
-      <c r="F8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>0</v>
       </c>
     </row>
